--- a/Numero_Perfecto/Datos.xlsx
+++ b/Numero_Perfecto/Datos.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC09\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC09\Documents\Analisis-Algoritmo\Numero_Perfecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{31DB0522-8BD3-4C7F-A959-139045EA65AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBAFB810-0BE3-4712-BAD7-758DA9E300F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8B195EF4-3DBD-40FD-9A1D-A0C76D27DB1E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{8B195EF4-3DBD-40FD-9A1D-A0C76D27DB1E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="9">
   <si>
     <t>Valor</t>
   </si>
@@ -57,6 +58,12 @@
   </si>
   <si>
     <t>Promedio</t>
+  </si>
+  <si>
+    <t>CODIGO 1</t>
+  </si>
+  <si>
+    <t>CODIGO 2</t>
   </si>
 </sst>
 </file>
@@ -108,7 +115,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -233,11 +240,113 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFFC000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFFC000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFFC000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFFC000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFFC000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -275,7 +384,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -826,7 +950,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Hoja1!$D$7</c15:sqref>
@@ -890,7 +1014,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -911,7 +1035,7 @@
                 </c:dLbls>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Hoja1!$D$8:$D$17</c15:sqref>
@@ -955,7 +1079,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-6710-4B3A-BD5A-A64696BC8E23}"/>
                   </c:ext>
@@ -968,7 +1092,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Hoja1!$E$7</c15:sqref>
@@ -1030,7 +1154,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -1051,7 +1175,7 @@
                 </c:dLbls>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Hoja1!$E$8:$E$17</c15:sqref>
@@ -1095,7 +1219,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-6710-4B3A-BD5A-A64696BC8E23}"/>
                   </c:ext>
@@ -1108,7 +1232,7 @@
                 <c:order val="4"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Hoja1!$F$7</c15:sqref>
@@ -1172,7 +1296,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -1193,7 +1317,7 @@
                 </c:dLbls>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Hoja1!$F$8:$F$17</c15:sqref>
@@ -1237,7 +1361,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-6710-4B3A-BD5A-A64696BC8E23}"/>
                   </c:ext>
@@ -1250,7 +1374,7 @@
                 <c:order val="5"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Hoja1!$G$7</c15:sqref>
@@ -1314,7 +1438,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -1335,7 +1459,7 @@
                 </c:dLbls>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Hoja1!$G$8:$G$17</c15:sqref>
@@ -1379,7 +1503,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-6710-4B3A-BD5A-A64696BC8E23}"/>
                   </c:ext>
@@ -1539,9 +1663,1472 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO"/>
+              <a:t>GRAFICA</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.35134711286089237"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja2!$B$6:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>496</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-73E2-481E-B0BA-F54E94C54A36}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja2!$H$6:$H$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>177960</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>174900</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>183020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>186620</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>172300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>173040</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>177780</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>174620</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>202540</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>275100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-73E2-481E-B0BA-F54E94C54A36}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1089324351"/>
+        <c:axId val="1089322431"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Hoja2!$C$6:$C$15</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>193800</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>165100</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>181200</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>188500</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>172200</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>173600</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>167400</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>177300</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>188600</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>262600</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-73E2-481E-B0BA-F54E94C54A36}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Hoja2!$D$6:$D$15</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>176100</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>169300</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>180400</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>184000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>173900</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>171700</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>176000</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>169600</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>202300</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>263500</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-73E2-481E-B0BA-F54E94C54A36}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Hoja2!$E$6:$E$15</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>176800</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>189300</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>182100</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>186000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>176500</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>166300</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>192700</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>182800</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>219400</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>257200</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-73E2-481E-B0BA-F54E94C54A36}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Hoja2!$F$6:$F$15</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>168200</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>179800</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>181300</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>198300</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>165500</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>177400</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>176600</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>173500</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>204400</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>273600</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-73E2-481E-B0BA-F54E94C54A36}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="5"/>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Hoja2!$G$6:$G$15</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>174900</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>171000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>190100</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>176300</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>173400</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>176200</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>176200</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>169900</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>198000</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>318600</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-73E2-481E-B0BA-F54E94C54A36}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1089324351"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1089322431"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1089322431"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1089324351"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO"/>
+              <a:t>GRAFICA</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja2!$R$6:$R$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>41580</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40980</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37860</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37440</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42040</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38520</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39300</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50260</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>49300</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>98780</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-8963-493A-B2AD-6C52123FE7F8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1089372351"/>
+        <c:axId val="1089362271"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="0"/>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Hoja2!$M$6:$M$15</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>55900</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>36700</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>40300</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>37600</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>40500</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>38200</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>38400</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>55700</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>45900</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>88800</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-8963-493A-B2AD-6C52123FE7F8}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="1"/>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Hoja2!$N$6:$N$15</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>39000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>53200</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>37500</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>37400</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>36800</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>38300</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>38600</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>57000</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>57800</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>115400</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-8963-493A-B2AD-6C52123FE7F8}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="2"/>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Hoja2!$O$6:$O$15</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>38800</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>37500</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>37000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>37400</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>40400</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>39400</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>42500</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>40300</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>61200</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>87900</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-8963-493A-B2AD-6C52123FE7F8}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="3"/>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Hoja2!$P$6:$P$15</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>37200</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>40800</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>37100</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>37200</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>38500</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>37900</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>38000</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>40600</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>41300</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>109100</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-8963-493A-B2AD-6C52123FE7F8}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="4"/>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Hoja2!$Q$6:$Q$15</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>37000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>36700</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>37400</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>37600</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>54000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>38800</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>39000</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>57700</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>40300</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>92700</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-8963-493A-B2AD-6C52123FE7F8}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1089372351"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1089362271"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1089362271"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1089372351"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="22">
   <a:schemeClr val="accent2"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
 </cs:colorStyle>
 </file>
 
@@ -2009,6 +3596,1038 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx2"/>
     </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -2046,6 +4665,83 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E339C69-62D5-3CBC-8063-9C4DBB50628B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E59D4CF4-AD07-F4A9-AC8D-2D4EE0056A57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2353,8 +5049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70FEB48A-2C44-469D-8E9C-8DAFFD9A00FF}">
   <dimension ref="B6:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2502,19 +5198,19 @@
       <c r="B13" s="7">
         <v>34</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="8">
         <v>105900</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="8">
         <v>101200</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="8">
         <v>102800</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="8">
         <v>101400</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G13" s="8">
         <v>102800</v>
       </c>
       <c r="H13" s="9">
@@ -2548,19 +5244,19 @@
       <c r="B15" s="7">
         <v>496</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="8">
         <v>104500</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="8">
         <v>107800</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="8">
         <v>110700</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="8">
         <v>105100</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G15" s="8">
         <v>110600</v>
       </c>
       <c r="H15" s="9">
@@ -2626,4 +5322,541 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{416BAB7B-2163-460D-ABBB-00CDA4706248}">
+  <dimension ref="B2:R15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="13">
+        <v>99</v>
+      </c>
+      <c r="C6" s="19">
+        <v>193800</v>
+      </c>
+      <c r="D6" s="19">
+        <v>176100</v>
+      </c>
+      <c r="E6" s="19">
+        <v>176800</v>
+      </c>
+      <c r="F6" s="19">
+        <v>168200</v>
+      </c>
+      <c r="G6" s="17">
+        <v>174900</v>
+      </c>
+      <c r="H6" s="17">
+        <f>AVERAGE(C6+D6+E6+F6+G6)/5</f>
+        <v>177960</v>
+      </c>
+      <c r="L6" s="13">
+        <v>99</v>
+      </c>
+      <c r="M6" s="19">
+        <v>55900</v>
+      </c>
+      <c r="N6" s="19">
+        <v>39000</v>
+      </c>
+      <c r="O6" s="19">
+        <v>38800</v>
+      </c>
+      <c r="P6" s="19">
+        <v>37200</v>
+      </c>
+      <c r="Q6" s="17">
+        <v>37000</v>
+      </c>
+      <c r="R6" s="17">
+        <f>AVERAGE(M6+N6+O6+P6+Q6)/5</f>
+        <v>41580</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="14">
+        <v>5</v>
+      </c>
+      <c r="C7" s="19">
+        <v>165100</v>
+      </c>
+      <c r="D7" s="18">
+        <v>169300</v>
+      </c>
+      <c r="E7" s="19">
+        <v>189300</v>
+      </c>
+      <c r="F7" s="18">
+        <v>179800</v>
+      </c>
+      <c r="G7" s="19">
+        <v>171000</v>
+      </c>
+      <c r="H7" s="17">
+        <f>AVERAGE(C7+D7+E7+F7+G7)/5</f>
+        <v>174900</v>
+      </c>
+      <c r="L7" s="14">
+        <v>5</v>
+      </c>
+      <c r="M7" s="19">
+        <v>36700</v>
+      </c>
+      <c r="N7" s="18">
+        <v>53200</v>
+      </c>
+      <c r="O7" s="19">
+        <v>37500</v>
+      </c>
+      <c r="P7" s="18">
+        <v>40800</v>
+      </c>
+      <c r="Q7" s="19">
+        <v>36700</v>
+      </c>
+      <c r="R7" s="17">
+        <f>AVERAGE(M7+N7+O7+P7+Q7)/5</f>
+        <v>40980</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="15">
+        <v>6</v>
+      </c>
+      <c r="C8" s="19">
+        <v>181200</v>
+      </c>
+      <c r="D8" s="18">
+        <v>180400</v>
+      </c>
+      <c r="E8" s="18">
+        <v>182100</v>
+      </c>
+      <c r="F8" s="18">
+        <v>181300</v>
+      </c>
+      <c r="G8" s="19">
+        <v>190100</v>
+      </c>
+      <c r="H8" s="17">
+        <f>AVERAGE(C8+D8+E8+F8+G8)/5</f>
+        <v>183020</v>
+      </c>
+      <c r="L8" s="15">
+        <v>6</v>
+      </c>
+      <c r="M8" s="19">
+        <v>40300</v>
+      </c>
+      <c r="N8" s="18">
+        <v>37500</v>
+      </c>
+      <c r="O8" s="18">
+        <v>37000</v>
+      </c>
+      <c r="P8" s="18">
+        <v>37100</v>
+      </c>
+      <c r="Q8" s="19">
+        <v>37400</v>
+      </c>
+      <c r="R8" s="17">
+        <f>AVERAGE(M8+N8+O8+P8+Q8)/5</f>
+        <v>37860</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="14">
+        <v>28</v>
+      </c>
+      <c r="C9" s="19">
+        <v>188500</v>
+      </c>
+      <c r="D9" s="18">
+        <v>184000</v>
+      </c>
+      <c r="E9" s="19">
+        <v>186000</v>
+      </c>
+      <c r="F9" s="18">
+        <v>198300</v>
+      </c>
+      <c r="G9" s="19">
+        <v>176300</v>
+      </c>
+      <c r="H9" s="17">
+        <f>AVERAGE(C9+D9+E9+F9+G9)/5</f>
+        <v>186620</v>
+      </c>
+      <c r="L9" s="14">
+        <v>28</v>
+      </c>
+      <c r="M9" s="19">
+        <v>37600</v>
+      </c>
+      <c r="N9" s="18">
+        <v>37400</v>
+      </c>
+      <c r="O9" s="19">
+        <v>37400</v>
+      </c>
+      <c r="P9" s="18">
+        <v>37200</v>
+      </c>
+      <c r="Q9" s="19">
+        <v>37600</v>
+      </c>
+      <c r="R9" s="17">
+        <f>AVERAGE(M9+N9+O9+P9+Q9)/5</f>
+        <v>37440</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="15">
+        <v>34</v>
+      </c>
+      <c r="C10" s="19">
+        <v>172200</v>
+      </c>
+      <c r="D10" s="18">
+        <v>173900</v>
+      </c>
+      <c r="E10" s="19">
+        <v>176500</v>
+      </c>
+      <c r="F10" s="18">
+        <v>165500</v>
+      </c>
+      <c r="G10" s="19">
+        <v>173400</v>
+      </c>
+      <c r="H10" s="17">
+        <f>AVERAGE(C10+D10+E10+F10+G10)/5</f>
+        <v>172300</v>
+      </c>
+      <c r="L10" s="15">
+        <v>34</v>
+      </c>
+      <c r="M10" s="19">
+        <v>40500</v>
+      </c>
+      <c r="N10" s="18">
+        <v>36800</v>
+      </c>
+      <c r="O10" s="19">
+        <v>40400</v>
+      </c>
+      <c r="P10" s="18">
+        <v>38500</v>
+      </c>
+      <c r="Q10" s="19">
+        <v>54000</v>
+      </c>
+      <c r="R10" s="17">
+        <f>AVERAGE(M10+N10+O10+P10+Q10)/5</f>
+        <v>42040</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="20">
+        <v>55</v>
+      </c>
+      <c r="C11" s="19">
+        <v>173600</v>
+      </c>
+      <c r="D11" s="18">
+        <v>171700</v>
+      </c>
+      <c r="E11" s="19">
+        <v>166300</v>
+      </c>
+      <c r="F11" s="18">
+        <v>177400</v>
+      </c>
+      <c r="G11" s="19">
+        <v>176200</v>
+      </c>
+      <c r="H11" s="17">
+        <f>AVERAGE(C11+D11+E11+F11+G11)/5</f>
+        <v>173040</v>
+      </c>
+      <c r="L11" s="20">
+        <v>55</v>
+      </c>
+      <c r="M11" s="19">
+        <v>38200</v>
+      </c>
+      <c r="N11" s="18">
+        <v>38300</v>
+      </c>
+      <c r="O11" s="19">
+        <v>39400</v>
+      </c>
+      <c r="P11" s="18">
+        <v>37900</v>
+      </c>
+      <c r="Q11" s="19">
+        <v>38800</v>
+      </c>
+      <c r="R11" s="17">
+        <f>AVERAGE(M11+N11+O11+P11+Q11)/5</f>
+        <v>38520</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="15">
+        <v>77</v>
+      </c>
+      <c r="C12" s="18">
+        <v>167400</v>
+      </c>
+      <c r="D12" s="18">
+        <v>176000</v>
+      </c>
+      <c r="E12" s="19">
+        <v>192700</v>
+      </c>
+      <c r="F12" s="18">
+        <v>176600</v>
+      </c>
+      <c r="G12" s="19">
+        <v>176200</v>
+      </c>
+      <c r="H12" s="17">
+        <f>AVERAGE(C12+D12+E12+F12+G12)/5</f>
+        <v>177780</v>
+      </c>
+      <c r="L12" s="15">
+        <v>77</v>
+      </c>
+      <c r="M12" s="18">
+        <v>38400</v>
+      </c>
+      <c r="N12" s="18">
+        <v>38600</v>
+      </c>
+      <c r="O12" s="19">
+        <v>42500</v>
+      </c>
+      <c r="P12" s="18">
+        <v>38000</v>
+      </c>
+      <c r="Q12" s="19">
+        <v>39000</v>
+      </c>
+      <c r="R12" s="17">
+        <f>AVERAGE(M12+N12+O12+P12+Q12)/5</f>
+        <v>39300</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="14">
+        <v>232</v>
+      </c>
+      <c r="C13" s="19">
+        <v>177300</v>
+      </c>
+      <c r="D13" s="18">
+        <v>169600</v>
+      </c>
+      <c r="E13" s="19">
+        <v>182800</v>
+      </c>
+      <c r="F13" s="19">
+        <v>173500</v>
+      </c>
+      <c r="G13" s="19">
+        <v>169900</v>
+      </c>
+      <c r="H13" s="17">
+        <f>AVERAGE(C13+D13+E13+F13+G13)/5</f>
+        <v>174620</v>
+      </c>
+      <c r="L13" s="14">
+        <v>232</v>
+      </c>
+      <c r="M13" s="19">
+        <v>55700</v>
+      </c>
+      <c r="N13" s="18">
+        <v>57000</v>
+      </c>
+      <c r="O13" s="19">
+        <v>40300</v>
+      </c>
+      <c r="P13" s="19">
+        <v>40600</v>
+      </c>
+      <c r="Q13" s="19">
+        <v>57700</v>
+      </c>
+      <c r="R13" s="17">
+        <f>AVERAGE(M13+N13+O13+P13+Q13)/5</f>
+        <v>50260</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="15">
+        <v>496</v>
+      </c>
+      <c r="C14" s="19">
+        <v>188600</v>
+      </c>
+      <c r="D14" s="18">
+        <v>202300</v>
+      </c>
+      <c r="E14" s="19">
+        <v>219400</v>
+      </c>
+      <c r="F14" s="18">
+        <v>204400</v>
+      </c>
+      <c r="G14" s="18">
+        <v>198000</v>
+      </c>
+      <c r="H14" s="17">
+        <f>AVERAGE(C14+D14+E14+F14+G14)/5</f>
+        <v>202540</v>
+      </c>
+      <c r="L14" s="15">
+        <v>496</v>
+      </c>
+      <c r="M14" s="19">
+        <v>45900</v>
+      </c>
+      <c r="N14" s="18">
+        <v>57800</v>
+      </c>
+      <c r="O14" s="19">
+        <v>61200</v>
+      </c>
+      <c r="P14" s="18">
+        <v>41300</v>
+      </c>
+      <c r="Q14" s="18">
+        <v>40300</v>
+      </c>
+      <c r="R14" s="17">
+        <f>AVERAGE(M14+N14+O14+P14+Q14)/5</f>
+        <v>49300</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B15" s="16">
+        <v>8128</v>
+      </c>
+      <c r="C15" s="18">
+        <v>262600</v>
+      </c>
+      <c r="D15" s="18">
+        <v>263500</v>
+      </c>
+      <c r="E15" s="18">
+        <v>257200</v>
+      </c>
+      <c r="F15" s="18">
+        <v>273600</v>
+      </c>
+      <c r="G15" s="18">
+        <v>318600</v>
+      </c>
+      <c r="H15" s="19">
+        <f>AVERAGE(C15+D15+E15+F15+G15)/5</f>
+        <v>275100</v>
+      </c>
+      <c r="L15" s="16">
+        <v>8128</v>
+      </c>
+      <c r="M15" s="18">
+        <v>88800</v>
+      </c>
+      <c r="N15" s="18">
+        <v>115400</v>
+      </c>
+      <c r="O15" s="18">
+        <v>87900</v>
+      </c>
+      <c r="P15" s="18">
+        <v>109100</v>
+      </c>
+      <c r="Q15" s="18">
+        <v>92700</v>
+      </c>
+      <c r="R15" s="17">
+        <f>AVERAGE(M15+N15+O15+P15+Q15)/5</f>
+        <v>98780</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="L8:R15">
+    <sortCondition ref="L7:L15"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Numero_Perfecto/Datos.xlsx
+++ b/Numero_Perfecto/Datos.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC09\Documents\Analisis-Algoritmo\Numero_Perfecto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC18\Documents\Analisis-Algoritmo\Numero_Perfecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBAFB810-0BE3-4712-BAD7-758DA9E300F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B6DE1D-ED55-45E9-BF6B-BDB17516B3D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{8B195EF4-3DBD-40FD-9A1D-A0C76D27DB1E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{8B195EF4-3DBD-40FD-9A1D-A0C76D27DB1E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="9">
   <si>
     <t>Valor</t>
   </si>
@@ -478,7 +479,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -584,7 +585,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-CO"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -712,7 +713,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-CO"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -861,7 +862,7 @@
                           <a:cs typeface="+mn-cs"/>
                         </a:defRPr>
                       </a:pPr>
-                      <a:endParaRPr lang="es-CO"/>
+                      <a:endParaRPr lang="en-US"/>
                     </a:p>
                   </c:txPr>
                   <c:dLblPos val="ctr"/>
@@ -1003,7 +1004,7 @@
                           <a:cs typeface="+mn-cs"/>
                         </a:defRPr>
                       </a:pPr>
-                      <a:endParaRPr lang="es-CO"/>
+                      <a:endParaRPr lang="en-US"/>
                     </a:p>
                   </c:txPr>
                   <c:dLblPos val="ctr"/>
@@ -1143,7 +1144,7 @@
                           <a:cs typeface="+mn-cs"/>
                         </a:defRPr>
                       </a:pPr>
-                      <a:endParaRPr lang="es-CO"/>
+                      <a:endParaRPr lang="en-US"/>
                     </a:p>
                   </c:txPr>
                   <c:dLblPos val="ctr"/>
@@ -1285,7 +1286,7 @@
                           <a:cs typeface="+mn-cs"/>
                         </a:defRPr>
                       </a:pPr>
-                      <a:endParaRPr lang="es-CO"/>
+                      <a:endParaRPr lang="en-US"/>
                     </a:p>
                   </c:txPr>
                   <c:dLblPos val="ctr"/>
@@ -1427,7 +1428,7 @@
                           <a:cs typeface="+mn-cs"/>
                         </a:defRPr>
                       </a:pPr>
-                      <a:endParaRPr lang="es-CO"/>
+                      <a:endParaRPr lang="en-US"/>
                     </a:p>
                   </c:txPr>
                   <c:dLblPos val="ctr"/>
@@ -1576,7 +1577,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2022243184"/>
@@ -1615,7 +1616,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1652,7 +1653,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1736,7 +1737,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1970,7 +1971,7 @@
                 </c:marker>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Hoja2!$D$6:$D$15</c15:sqref>
@@ -2014,7 +2015,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-73E2-481E-B0BA-F54E94C54A36}"/>
                   </c:ext>
@@ -2039,7 +2040,7 @@
                 </c:marker>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Hoja2!$E$6:$E$15</c15:sqref>
@@ -2083,7 +2084,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-73E2-481E-B0BA-F54E94C54A36}"/>
                   </c:ext>
@@ -2108,7 +2109,7 @@
                 </c:marker>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Hoja2!$F$6:$F$15</c15:sqref>
@@ -2152,7 +2153,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-73E2-481E-B0BA-F54E94C54A36}"/>
                   </c:ext>
@@ -2177,7 +2178,7 @@
                 </c:marker>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Hoja2!$G$6:$G$15</c15:sqref>
@@ -2221,7 +2222,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-73E2-481E-B0BA-F54E94C54A36}"/>
                   </c:ext>
@@ -2271,7 +2272,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1089322431"/>
@@ -2330,7 +2331,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1089324351"/>
@@ -2378,7 +2379,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2454,7 +2455,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2627,7 +2628,7 @@
                 </c:marker>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Hoja2!$N$6:$N$15</c15:sqref>
@@ -2671,7 +2672,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-8963-493A-B2AD-6C52123FE7F8}"/>
                   </c:ext>
@@ -2696,7 +2697,7 @@
                 </c:marker>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Hoja2!$O$6:$O$15</c15:sqref>
@@ -2740,7 +2741,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-8963-493A-B2AD-6C52123FE7F8}"/>
                   </c:ext>
@@ -2765,7 +2766,7 @@
                 </c:marker>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Hoja2!$P$6:$P$15</c15:sqref>
@@ -2809,7 +2810,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-8963-493A-B2AD-6C52123FE7F8}"/>
                   </c:ext>
@@ -2834,7 +2835,7 @@
                 </c:marker>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Hoja2!$Q$6:$Q$15</c15:sqref>
@@ -2878,7 +2879,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-8963-493A-B2AD-6C52123FE7F8}"/>
                   </c:ext>
@@ -2928,7 +2929,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1089362271"/>
@@ -2987,7 +2988,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1089372351"/>
@@ -3035,7 +3036,715 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.3463745435576418E-3"/>
+                  <c:y val="3.6281173955944944E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-2DEE-490D-846B-3AC903A4F469}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja3!$B$7:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2DEE-490D-846B-3AC903A4F469}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja3!$H$7:$H$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>6444820</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9740860</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25248500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42965260</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>68284300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>98136620</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>147063220</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>171696340</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>224415260</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>273054380</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-2DEE-490D-846B-3AC903A4F469}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="59511584"/>
+        <c:axId val="59510144"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Hoja3!$C$7:$C$16</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>6101400</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>12807100</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>24585400</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>40421100</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>66264800</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>91183000</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>142531300</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>167171000</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>224487400</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>277130800</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-2DEE-490D-846B-3AC903A4F469}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Hoja3!$D$7:$D$16</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>6428700</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>11678600</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>24275300</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>41581200</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>67288600</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>91392000</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>134668800</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>182288200</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>226721600</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>270714000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-2DEE-490D-846B-3AC903A4F469}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Hoja3!$E$7:$E$16</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>6383800</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1449300</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>26004400</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>43712900</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>69959800</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>100596900</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>142664600</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>172271900</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>225995800</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>271143100</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-2DEE-490D-846B-3AC903A4F469}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Hoja3!$F$7:$F$16</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>6201500</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>11381300</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>25460600</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>47470000</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>65702000</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>112497900</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>126336300</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>170183600</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>215705000</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>272857000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-2DEE-490D-846B-3AC903A4F469}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="5"/>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Hoja3!$G$7:$G$16</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>7108700</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>11388000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>25916800</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>41641100</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>72206300</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>95013300</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>189115100</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>166567000</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>229166500</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>273427000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-2DEE-490D-846B-3AC903A4F469}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="59511584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="59510144"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="59510144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="59511584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3132,6 +3841,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="231">
   <cs:axisTitle>
@@ -4117,6 +4866,522 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4742,6 +6007,47 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>733424</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>723899</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C558BF7F-0A1B-B737-E9A6-5F67FC47F391}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5328,8 +6634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{416BAB7B-2163-460D-ABBB-00CDA4706248}">
   <dimension ref="B2:R15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5411,7 +6717,7 @@
         <v>174900</v>
       </c>
       <c r="H6" s="17">
-        <f>AVERAGE(C6+D6+E6+F6+G6)/5</f>
+        <f t="shared" ref="H6:H15" si="0">AVERAGE(C6+D6+E6+F6+G6)/5</f>
         <v>177960</v>
       </c>
       <c r="L6" s="13">
@@ -5433,7 +6739,7 @@
         <v>37000</v>
       </c>
       <c r="R6" s="17">
-        <f>AVERAGE(M6+N6+O6+P6+Q6)/5</f>
+        <f t="shared" ref="R6:R15" si="1">AVERAGE(M6+N6+O6+P6+Q6)/5</f>
         <v>41580</v>
       </c>
     </row>
@@ -5457,7 +6763,7 @@
         <v>171000</v>
       </c>
       <c r="H7" s="17">
-        <f>AVERAGE(C7+D7+E7+F7+G7)/5</f>
+        <f t="shared" si="0"/>
         <v>174900</v>
       </c>
       <c r="L7" s="14">
@@ -5479,7 +6785,7 @@
         <v>36700</v>
       </c>
       <c r="R7" s="17">
-        <f>AVERAGE(M7+N7+O7+P7+Q7)/5</f>
+        <f t="shared" si="1"/>
         <v>40980</v>
       </c>
     </row>
@@ -5503,7 +6809,7 @@
         <v>190100</v>
       </c>
       <c r="H8" s="17">
-        <f>AVERAGE(C8+D8+E8+F8+G8)/5</f>
+        <f t="shared" si="0"/>
         <v>183020</v>
       </c>
       <c r="L8" s="15">
@@ -5525,7 +6831,7 @@
         <v>37400</v>
       </c>
       <c r="R8" s="17">
-        <f>AVERAGE(M8+N8+O8+P8+Q8)/5</f>
+        <f t="shared" si="1"/>
         <v>37860</v>
       </c>
     </row>
@@ -5549,7 +6855,7 @@
         <v>176300</v>
       </c>
       <c r="H9" s="17">
-        <f>AVERAGE(C9+D9+E9+F9+G9)/5</f>
+        <f t="shared" si="0"/>
         <v>186620</v>
       </c>
       <c r="L9" s="14">
@@ -5571,7 +6877,7 @@
         <v>37600</v>
       </c>
       <c r="R9" s="17">
-        <f>AVERAGE(M9+N9+O9+P9+Q9)/5</f>
+        <f t="shared" si="1"/>
         <v>37440</v>
       </c>
     </row>
@@ -5595,7 +6901,7 @@
         <v>173400</v>
       </c>
       <c r="H10" s="17">
-        <f>AVERAGE(C10+D10+E10+F10+G10)/5</f>
+        <f t="shared" si="0"/>
         <v>172300</v>
       </c>
       <c r="L10" s="15">
@@ -5617,7 +6923,7 @@
         <v>54000</v>
       </c>
       <c r="R10" s="17">
-        <f>AVERAGE(M10+N10+O10+P10+Q10)/5</f>
+        <f t="shared" si="1"/>
         <v>42040</v>
       </c>
     </row>
@@ -5641,7 +6947,7 @@
         <v>176200</v>
       </c>
       <c r="H11" s="17">
-        <f>AVERAGE(C11+D11+E11+F11+G11)/5</f>
+        <f t="shared" si="0"/>
         <v>173040</v>
       </c>
       <c r="L11" s="20">
@@ -5663,7 +6969,7 @@
         <v>38800</v>
       </c>
       <c r="R11" s="17">
-        <f>AVERAGE(M11+N11+O11+P11+Q11)/5</f>
+        <f t="shared" si="1"/>
         <v>38520</v>
       </c>
     </row>
@@ -5687,7 +6993,7 @@
         <v>176200</v>
       </c>
       <c r="H12" s="17">
-        <f>AVERAGE(C12+D12+E12+F12+G12)/5</f>
+        <f t="shared" si="0"/>
         <v>177780</v>
       </c>
       <c r="L12" s="15">
@@ -5709,7 +7015,7 @@
         <v>39000</v>
       </c>
       <c r="R12" s="17">
-        <f>AVERAGE(M12+N12+O12+P12+Q12)/5</f>
+        <f t="shared" si="1"/>
         <v>39300</v>
       </c>
     </row>
@@ -5733,7 +7039,7 @@
         <v>169900</v>
       </c>
       <c r="H13" s="17">
-        <f>AVERAGE(C13+D13+E13+F13+G13)/5</f>
+        <f t="shared" si="0"/>
         <v>174620</v>
       </c>
       <c r="L13" s="14">
@@ -5755,7 +7061,7 @@
         <v>57700</v>
       </c>
       <c r="R13" s="17">
-        <f>AVERAGE(M13+N13+O13+P13+Q13)/5</f>
+        <f t="shared" si="1"/>
         <v>50260</v>
       </c>
     </row>
@@ -5779,7 +7085,7 @@
         <v>198000</v>
       </c>
       <c r="H14" s="17">
-        <f>AVERAGE(C14+D14+E14+F14+G14)/5</f>
+        <f t="shared" si="0"/>
         <v>202540</v>
       </c>
       <c r="L14" s="15">
@@ -5801,7 +7107,7 @@
         <v>40300</v>
       </c>
       <c r="R14" s="17">
-        <f>AVERAGE(M14+N14+O14+P14+Q14)/5</f>
+        <f t="shared" si="1"/>
         <v>49300</v>
       </c>
     </row>
@@ -5825,7 +7131,7 @@
         <v>318600</v>
       </c>
       <c r="H15" s="19">
-        <f>AVERAGE(C15+D15+E15+F15+G15)/5</f>
+        <f t="shared" si="0"/>
         <v>275100</v>
       </c>
       <c r="L15" s="16">
@@ -5847,7 +7153,7 @@
         <v>92700</v>
       </c>
       <c r="R15" s="17">
-        <f>AVERAGE(M15+N15+O15+P15+Q15)/5</f>
+        <f t="shared" si="1"/>
         <v>98780</v>
       </c>
     </row>
@@ -5859,4 +7165,287 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D708ED6E-81FD-46C7-BB1B-AD1B71DC8D3E}">
+  <dimension ref="B5:H16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G38" sqref="F38:G41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="13">
+        <v>10</v>
+      </c>
+      <c r="C7" s="19">
+        <v>6101400</v>
+      </c>
+      <c r="D7" s="19">
+        <v>6428700</v>
+      </c>
+      <c r="E7" s="19">
+        <v>6383800</v>
+      </c>
+      <c r="F7" s="19">
+        <v>6201500</v>
+      </c>
+      <c r="G7" s="17">
+        <v>7108700</v>
+      </c>
+      <c r="H7" s="17">
+        <f>AVERAGE(C7+D7+E7+F7+G7)/5</f>
+        <v>6444820</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="14">
+        <v>20</v>
+      </c>
+      <c r="C8" s="19">
+        <v>12807100</v>
+      </c>
+      <c r="D8" s="18">
+        <v>11678600</v>
+      </c>
+      <c r="E8" s="19">
+        <v>1449300</v>
+      </c>
+      <c r="F8" s="18">
+        <v>11381300</v>
+      </c>
+      <c r="G8" s="19">
+        <v>11388000</v>
+      </c>
+      <c r="H8" s="17">
+        <f t="shared" ref="H8:H16" si="0">AVERAGE(C8+D8+E8+F8+G8)/5</f>
+        <v>9740860</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="15">
+        <v>30</v>
+      </c>
+      <c r="C9" s="19">
+        <v>24585400</v>
+      </c>
+      <c r="D9" s="18">
+        <v>24275300</v>
+      </c>
+      <c r="E9" s="18">
+        <v>26004400</v>
+      </c>
+      <c r="F9" s="18">
+        <v>25460600</v>
+      </c>
+      <c r="G9" s="19">
+        <v>25916800</v>
+      </c>
+      <c r="H9" s="17">
+        <f t="shared" si="0"/>
+        <v>25248500</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="14">
+        <v>40</v>
+      </c>
+      <c r="C10" s="19">
+        <v>40421100</v>
+      </c>
+      <c r="D10" s="18">
+        <v>41581200</v>
+      </c>
+      <c r="E10" s="19">
+        <v>43712900</v>
+      </c>
+      <c r="F10" s="18">
+        <v>47470000</v>
+      </c>
+      <c r="G10" s="19">
+        <v>41641100</v>
+      </c>
+      <c r="H10" s="17">
+        <f t="shared" si="0"/>
+        <v>42965260</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="15">
+        <v>50</v>
+      </c>
+      <c r="C11" s="19">
+        <v>66264800</v>
+      </c>
+      <c r="D11" s="18">
+        <v>67288600</v>
+      </c>
+      <c r="E11" s="19">
+        <v>69959800</v>
+      </c>
+      <c r="F11" s="18">
+        <v>65702000</v>
+      </c>
+      <c r="G11" s="19">
+        <v>72206300</v>
+      </c>
+      <c r="H11" s="17">
+        <f t="shared" si="0"/>
+        <v>68284300</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="20">
+        <v>60</v>
+      </c>
+      <c r="C12" s="19">
+        <v>91183000</v>
+      </c>
+      <c r="D12" s="18">
+        <v>91392000</v>
+      </c>
+      <c r="E12" s="19">
+        <v>100596900</v>
+      </c>
+      <c r="F12" s="18">
+        <v>112497900</v>
+      </c>
+      <c r="G12" s="19">
+        <v>95013300</v>
+      </c>
+      <c r="H12" s="17">
+        <f t="shared" si="0"/>
+        <v>98136620</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="15">
+        <v>70</v>
+      </c>
+      <c r="C13" s="18">
+        <v>142531300</v>
+      </c>
+      <c r="D13" s="18">
+        <v>134668800</v>
+      </c>
+      <c r="E13" s="19">
+        <v>142664600</v>
+      </c>
+      <c r="F13" s="18">
+        <v>126336300</v>
+      </c>
+      <c r="G13" s="19">
+        <v>189115100</v>
+      </c>
+      <c r="H13" s="17">
+        <f t="shared" si="0"/>
+        <v>147063220</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="14">
+        <v>80</v>
+      </c>
+      <c r="C14" s="19">
+        <v>167171000</v>
+      </c>
+      <c r="D14" s="18">
+        <v>182288200</v>
+      </c>
+      <c r="E14" s="19">
+        <v>172271900</v>
+      </c>
+      <c r="F14" s="19">
+        <v>170183600</v>
+      </c>
+      <c r="G14" s="19">
+        <v>166567000</v>
+      </c>
+      <c r="H14" s="17">
+        <f t="shared" si="0"/>
+        <v>171696340</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="15">
+        <v>90</v>
+      </c>
+      <c r="C15" s="19">
+        <v>224487400</v>
+      </c>
+      <c r="D15" s="18">
+        <v>226721600</v>
+      </c>
+      <c r="E15" s="19">
+        <v>225995800</v>
+      </c>
+      <c r="F15" s="18">
+        <v>215705000</v>
+      </c>
+      <c r="G15" s="18">
+        <v>229166500</v>
+      </c>
+      <c r="H15" s="17">
+        <f t="shared" si="0"/>
+        <v>224415260</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="16">
+        <v>100</v>
+      </c>
+      <c r="C16" s="18">
+        <v>277130800</v>
+      </c>
+      <c r="D16" s="18">
+        <v>270714000</v>
+      </c>
+      <c r="E16" s="18">
+        <v>271143100</v>
+      </c>
+      <c r="F16" s="18">
+        <v>272857000</v>
+      </c>
+      <c r="G16" s="18">
+        <v>273427000</v>
+      </c>
+      <c r="H16" s="17">
+        <f t="shared" si="0"/>
+        <v>273054380</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>